--- a/Output/shows.xlsx
+++ b/Output/shows.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>url</t>
   </si>
@@ -31,18 +31,9 @@
     <t>time</t>
   </si>
   <si>
-    <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-16-de-diciembre-1930-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-16-de-diciembre-2130-hrs-segunda-funcion/</t>
-  </si>
-  <si>
     <t>https://comedypass.online/tienda/ignacio-socias-comedy-restobar-17-de-diciembre-2000-hrs/</t>
   </si>
   <si>
-    <t>https://comedypass.online/tienda/valentin-camm-e-ivan-martin-intimate-sessions-by-aji-amarillo-17-de-diciembre-2000-hrs/</t>
-  </si>
-  <si>
     <t>https://comedypass.online/tienda/claudio-michaux-17-de-diciembre-2200-hrs-club-de-san-miguel/</t>
   </si>
   <si>
@@ -52,7 +43,55 @@
     <t>https://comedypass.online/tienda/pam-pam-18-de-diciembre-2000-hrs-teatro-fiebre/</t>
   </si>
   <si>
-    <t>paloma salas</t>
+    <t>https://comedypass.online/tienda/la-vegana-y-la-lesbiana-vale-vieira-y-luni-love-18-de-diciembre-2000-hrs-la-bota-cervecera-valdivia/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/marcelo-valverde-comedy-restobar-18-de-diciembre-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/don-carter-18-de-diciembre-2100-hrs-bar-distrito-san-ignacio-san-miguel/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/darinka-rossy-rossy-y-monse-jerez-18-de-diciembre-2100-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/rodrigo-salinas-comedy-restobar-18-de-diciembre-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/habla-cobarde-edo-caroe-comedy-restobar-19-de-diciembre-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/jimmy-aguila-19-de-diciembre-2000-hrs-barbones-vina-del-mar/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/gaby-del-rio-las-reinas-de-la-noche-19-de-diciembre-2030-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/final-feliz-sr-kampos-max-rayo-y-daniel-rubio-comedy-restobar-19-de-diciembre-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/no-soy-yo-eres-tu-19-de-diciembre-2230-hrs-the-new-jaggers-club-vina-del-mar-2/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/mauro-palma-20-de-diciembre-2000-hrs-la-bota-cervecera-valdivia/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/pelao-rodrigo-comedy-restobar-20-de-diciembre-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/pollo-castillo-20-de-diciembre-1930-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/rodrigo-vasquez-comedy-restobar-20-de-diciembre-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/ivan-arenas-20-de-diciembre-2230-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/odioso-que-vuelvan-los-90-mr-feromonas-viernes-20-de-diciembre-2130-hrs-bar-111/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/</t>
   </si>
   <si>
     <t>ignacio socias</t>
@@ -64,34 +103,58 @@
     <t>pam pam</t>
   </si>
   <si>
+    <t>marcelo valverde</t>
+  </si>
+  <si>
+    <t>don carter</t>
+  </si>
+  <si>
+    <t>rodrigo salinas</t>
+  </si>
+  <si>
+    <t>rodrigo vasquez</t>
+  </si>
+  <si>
+    <t>mr feromonas</t>
+  </si>
+  <si>
     <t>comedy restobar</t>
   </si>
   <si>
     <t>club de san miguel</t>
   </si>
   <si>
-    <t>16 de diciembre</t>
-  </si>
-  <si>
     <t>17 de diciembre</t>
   </si>
   <si>
     <t>18 de diciembre</t>
   </si>
   <si>
+    <t>19 de diciembre</t>
+  </si>
+  <si>
+    <t>20 de diciembre</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
     <t>19:30</t>
   </si>
   <si>
     <t>21:30</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>22:30</t>
   </si>
 </sst>
 </file>
@@ -462,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,16 +553,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -507,75 +570,72 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -583,13 +643,197 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -601,6 +845,20 @@
     <hyperlink ref="A6" r:id="rId5"/>
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/shows.xlsx
+++ b/Output/shows.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="166">
   <si>
     <t>url</t>
   </si>
@@ -31,48 +31,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>https://comedypass.online/tienda/ignacio-socias-comedy-restobar-17-de-diciembre-2000-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/claudio-michaux-17-de-diciembre-2200-hrs-club-de-san-miguel/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/edo-caroe-comedy-restobar-17-de-diciembre-2230-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/pam-pam-18-de-diciembre-2000-hrs-teatro-fiebre/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/la-vegana-y-la-lesbiana-vale-vieira-y-luni-love-18-de-diciembre-2000-hrs-la-bota-cervecera-valdivia/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/marcelo-valverde-comedy-restobar-18-de-diciembre-2000-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/don-carter-18-de-diciembre-2100-hrs-bar-distrito-san-ignacio-san-miguel/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/darinka-rossy-rossy-y-monse-jerez-18-de-diciembre-2100-hrs-club-de-san-miguel/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/rodrigo-salinas-comedy-restobar-18-de-diciembre-2230-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/habla-cobarde-edo-caroe-comedy-restobar-19-de-diciembre-2000-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/jimmy-aguila-19-de-diciembre-2000-hrs-barbones-vina-del-mar/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/gaby-del-rio-las-reinas-de-la-noche-19-de-diciembre-2030-hrs-club-de-san-miguel/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/final-feliz-sr-kampos-max-rayo-y-daniel-rubio-comedy-restobar-19-de-diciembre-2230-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/no-soy-yo-eres-tu-19-de-diciembre-2230-hrs-the-new-jaggers-club-vina-del-mar-2/</t>
-  </si>
-  <si>
     <t>https://comedypass.online/tienda/mauro-palma-20-de-diciembre-2000-hrs-la-bota-cervecera-valdivia/</t>
   </si>
   <si>
@@ -91,31 +49,355 @@
     <t>https://comedypass.online/tienda/odioso-que-vuelvan-los-90-mr-feromonas-viernes-20-de-diciembre-2130-hrs-bar-111/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/la-wilo-comedy-restobar-21-de-diciembre-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/roberto-delgado-21-de-diciembre-2000-hrs-begona-bar/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vale-saini-21-de-diciembre-2000-hrs-la-bota-cervecera-valdivia/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/felipe-izquierdo-21-de-diciembre-1900-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/odioso-que-vuelvan-los-90-mr-feromonas-sabado-21-de-diciembre-2130-hrs-bar-111/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-viciani-comedy-restobar-21-de-diciembre-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/pato-pimienta-21-de-diciembre-2230-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-23-de-diciembre-1930-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-23-de-diciembre-2130-hrs-segunda-funcion/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/ignacio-socias-comedy-restobar-26-de-diciembre-2000-hrs-2/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/el-regalo-edo-vallejo-comedy-restobar-26-de-diciembre-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/chiqui-aguayo-comedy-restobar-27-de-diciembre-1930-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vituperio-no-estoy-creici-comedy-restobar-27-de-diciembre-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/sergio-freire-27-de-diciembre-2100-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/sergio-freire-comedy-restobar-28-de-diciembre-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/chiqui-aguayo-28-de-diciembre-2100-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/odioso-que-vuelvan-los-90-mr-feromonas-sabado-28-de-diciembre-2130-hrs-bar-111/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/demian-the-rat-comedy-restobar-28-de-diciembre-2230-hrs-2/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-30-de-diciembre-1930-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/ignacio-socias-camino-a-olmue-2-de-enero-2100-hrs-espacio-eskenazo-pirque/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/claudio-michaux-comedy-restobar-3-de-enero-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-comedy-restobar-3-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/juan-pablo-flores-comedy-restobar-4-de-enero-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/rodrigo-gonzalez-comedy-restobar-4-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-6-de-enero-1930-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/ignacio-socias-camino-a-olmue-comedy-restobar-7-de-enero-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vituperio-no-estoy-creici-7-de-enero-2130-hrs-beergarden-penuelas-coquimbo/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/luis-slimming-comedy-restobar-7-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/lucas-espinoza-comedy-restobar-8-de-enero-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vituperio-no-estoy-creici-8-de-enero-2230-hrs-terrabar-vallenar/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/el-primer-show-del-ano-comedy-restobar-8-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-8-de-enero-2100-hrs-patio-azapa-arica/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/pao-molina-comedy-restobar-9-de-enero-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vituperio-no-estoy-creici-9-de-enero-2130-hrs-espacio-bourbon-copiapo/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-9-de-enero-2100-hrs-la-casa-del-mojito-artesanal-iquique/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/sergio-freire-comedy-restobar-9-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/ignacio-socias-camino-a-olmue-9-de-enero-2100-hrs-patio-bulnes-buin-2/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/ivan-cabello-9-de-enero-2100-hrs-la-bota-cervecera-valdivia/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/ivan-cabello-10-de-enero-2000-hrs-bar-baradero-puerto-montt/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/alison-mandel-comedy-restobar-10-de-enero-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-10-de-enero-2100-hrs-terraza-bahia-antofagasta-3/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/rodrigo-gonzalez-10-de-enero-2100-hrs-bar-plaza-curico/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/palomoza-comedy-restobar-10-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/pato-pimienta-comedy-restobar-11-de-enero-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/la-elvira-barriendo-con-todo-11-de-enero-2000-hrs-la-bota-cervecera-valdivia/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/rodrigo-gonzalez-11-de-enero-2200-hrs-la-clandestina-linares/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/claudio-michaux-comedy-restobar-11-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-11-de-enero-2200-hrs-sublimeat-calama/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-13-de-enero-1930-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/la-media-girita-altoyoyo-14-de-enero-2130-hrs-coyotes-club-maipu/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/chiqui-aguayo-comedy-restobar-15-de-enero-1930-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/sin-juzgar-marcelo-valverde-15-de-enero-2100-hrs-trotamundos-quilpue/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-15-de-enero-2100-hrs-bar-republicano-rancagua/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/chiqui-aguayo-comedy-restobar-15-de-enero-2230-hrs-segunda-funcion/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/la-media-girita-altoyoyo-15-de-enero-2130-hrs-los-piures-pichilemu/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vituperio-no-estoy-creici-15-de-enero-2230-hrs-enkai-bar-antofagasta/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/la-wilo-tour-del-ver-ano-comedy-restobar-16-de-enero-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/gringo-mode-on-16-de-enero-1930-hrs-la-bota-cervecera-valdivia/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/rodrigo-villegas-16-de-enero-2130-hrs-espacio-eskenazo-pirque/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-16-de-enero-2230-hrs-espacio-claustro-san-fernando/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/luis-aravena-comedy-restobar-16-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vituperio-no-estoy-creici-16-de-enero-2200-hrs-sublimeat-calama/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/chiqui-aguayo-16-de-enero-2100-hrs-patio-785-la-ligua/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/sin-juzgar-marcelo-valverde-16-de-enero-1900-bar-baradero-puerto-montt/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/ivan-cabello-16-de-enero-2000-hrs-locos-x-vina-vina-del-mar/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/alison-mandel-comedy-restobar-17-de-enero-2000-hrs-2/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/sin-juzgar-marcelo-valverde-17-de-enero-1930-hrs-la-bota-cervecera-valdivia/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/pame-leiva-comedy-restobar-17-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-17-de-enero-2100-hrs-cacho-de-cabra-santa-cruz/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/leon-murillo-comedy-restobar-18-de-enero-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/sin-juzgar-marcelo-valverde-18-de-enero-2030-hrs-matureo-osorno/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/mauro-palma-comedy-restobar-18-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-18-de-enero-2100-hrs-bar-plaza-curico/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/chiqui-aguayo-18-de-enero-2100-hrs-ruta-78-puente-alto/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-20-de-enero-1930-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/ignacio-socias-desde-cero-comedy-restobar-21-de-enero-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/luis-slimming-comedy-restobar-21-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/angelo-soul-22-de-enero-1930-hrs-la-bota-cervecera-valdivia/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/chiqui-aguayo-comedy-restobar-22-de-enero-1930-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-22-de-enero-2100-hrs-ruta-78-puente-alto/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/chiqui-aguayo-comedy-restobar-22-de-enero-2230-hrs-segunda-funcion/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/la-media-girita-altoyoyo-22-de-enero-2100-hrs-comadre-lola-quilicura/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/la-wilo-tour-del-ver-ano-comedy-restobar-23-de-enero-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/ignacio-socias-desde-cero-23-de-enero-2000-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-23-de-enero-2000-hrs-barbones-vina-del-mar/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/erwin-padilla-comedy-restobar-23-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/la-media-girita-altoyoyo-23-de-enero-2100-hrs-bar-republicano-rancagua/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/altoyoyo-rodrigo-vasquez-comedy-restobar-24-de-enero-2000-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-24-de-enero-2100-hrs-gatoloco-talca/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/sin-juzgar-marcelo-valverde-24-de-enero-2100-hrs-bar-plaza-curico/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/altoyoyo-rodrigo-vasquez-comedy-restobar-24-de-enero-2230-hrs-segunda-funcion/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/chiqui-aguayo-25-de-enero-1930-hrs-la-bota-cervecera-valdivia/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/sin-juzgar-marcelo-valverde-25-de-enero-2000-hrs-centro-de-extension-ucm-talca/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vituperio-no-estoy-creici-comedy-restobar-25-de-enero-2000-hrs/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/</t>
   </si>
   <si>
+    <t>rodrigo vasquez</t>
+  </si>
+  <si>
+    <t>mr feromonas</t>
+  </si>
+  <si>
+    <t>la wilo</t>
+  </si>
+  <si>
+    <t>roberto delgado</t>
+  </si>
+  <si>
+    <t>felipe izquierdo</t>
+  </si>
+  <si>
+    <t>vicho viciani</t>
+  </si>
+  <si>
+    <t>pato pimienta</t>
+  </si>
+  <si>
+    <t>paloma salas</t>
+  </si>
+  <si>
     <t>ignacio socias</t>
   </si>
   <si>
+    <t>chiqui aguayo</t>
+  </si>
+  <si>
+    <t>no estoy creici</t>
+  </si>
+  <si>
+    <t>demian the rat</t>
+  </si>
+  <si>
     <t>claudio michaux</t>
   </si>
   <si>
-    <t>pam pam</t>
+    <t>juan pablo flores</t>
+  </si>
+  <si>
+    <t>rodrigo gonzalez</t>
+  </si>
+  <si>
+    <t>lucas espinoza</t>
+  </si>
+  <si>
+    <t>pao molina</t>
+  </si>
+  <si>
+    <t>alison mandel</t>
+  </si>
+  <si>
+    <t>palomoza</t>
   </si>
   <si>
     <t>marcelo valverde</t>
   </si>
   <si>
-    <t>don carter</t>
-  </si>
-  <si>
-    <t>rodrigo salinas</t>
-  </si>
-  <si>
-    <t>rodrigo vasquez</t>
-  </si>
-  <si>
-    <t>mr feromonas</t>
+    <t>pame leiva</t>
+  </si>
+  <si>
+    <t>leon murillo</t>
   </si>
   <si>
     <t>comedy restobar</t>
@@ -124,37 +406,112 @@
     <t>club de san miguel</t>
   </si>
   <si>
-    <t>17 de diciembre</t>
-  </si>
-  <si>
-    <t>18 de diciembre</t>
-  </si>
-  <si>
-    <t>19 de diciembre</t>
-  </si>
-  <si>
     <t>20 de diciembre</t>
   </si>
   <si>
+    <t>21 de diciembre</t>
+  </si>
+  <si>
+    <t>23 de diciembre</t>
+  </si>
+  <si>
+    <t>26 de diciembre</t>
+  </si>
+  <si>
+    <t>27 de diciembre</t>
+  </si>
+  <si>
+    <t>28 de diciembre</t>
+  </si>
+  <si>
+    <t>30 de diciembre</t>
+  </si>
+  <si>
+    <t>2 de enero</t>
+  </si>
+  <si>
+    <t>3 de enero</t>
+  </si>
+  <si>
+    <t>4 de enero</t>
+  </si>
+  <si>
+    <t>6 de enero</t>
+  </si>
+  <si>
+    <t>7 de enero</t>
+  </si>
+  <si>
+    <t>8 de enero</t>
+  </si>
+  <si>
+    <t>9 de enero</t>
+  </si>
+  <si>
+    <t>10 de enero</t>
+  </si>
+  <si>
+    <t>11 de enero</t>
+  </si>
+  <si>
+    <t>13 de enero</t>
+  </si>
+  <si>
+    <t>14 de enero</t>
+  </si>
+  <si>
+    <t>15 de enero</t>
+  </si>
+  <si>
+    <t>16 de enero</t>
+  </si>
+  <si>
+    <t>17 de enero</t>
+  </si>
+  <si>
+    <t>18 de enero</t>
+  </si>
+  <si>
+    <t>20 de enero</t>
+  </si>
+  <si>
+    <t>21 de enero</t>
+  </si>
+  <si>
+    <t>22 de enero</t>
+  </si>
+  <si>
+    <t>23 de enero</t>
+  </si>
+  <si>
+    <t>24 de enero</t>
+  </si>
+  <si>
+    <t>25 de enero</t>
+  </si>
+  <si>
     <t>20:00</t>
   </si>
   <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
     <t>22:00</t>
   </si>
   <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
     <t>20:30</t>
-  </si>
-  <si>
-    <t>19:30</t>
-  </si>
-  <si>
-    <t>21:30</t>
   </si>
 </sst>
 </file>
@@ -525,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,34 +909,25 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -587,13 +935,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -601,24 +949,30 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -626,16 +980,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -643,133 +994,157 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
+      <c r="B9" t="s">
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -777,13 +1152,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -791,49 +1166,1196 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>33</v>
+      <c r="C21" t="s">
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" t="s">
+        <v>151</v>
+      </c>
+      <c r="E77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" t="s">
+        <v>151</v>
+      </c>
+      <c r="E79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" t="s">
+        <v>128</v>
+      </c>
+      <c r="D82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" t="s">
+        <v>153</v>
+      </c>
+      <c r="E83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" t="s">
+        <v>153</v>
+      </c>
+      <c r="E84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" t="s">
+        <v>154</v>
+      </c>
+      <c r="E85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" t="s">
+        <v>154</v>
+      </c>
+      <c r="E86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" t="s">
+        <v>154</v>
+      </c>
+      <c r="E87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" t="s">
+        <v>155</v>
+      </c>
+      <c r="E90" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" t="s">
+        <v>155</v>
+      </c>
+      <c r="E91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" t="s">
+        <v>155</v>
+      </c>
+      <c r="E92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" t="s">
+        <v>155</v>
+      </c>
+      <c r="E94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" t="s">
+        <v>156</v>
+      </c>
+      <c r="E95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" t="s">
+        <v>156</v>
+      </c>
+      <c r="E96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" t="s">
+        <v>156</v>
+      </c>
+      <c r="E97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" t="s">
+        <v>156</v>
+      </c>
+      <c r="E98" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" t="s">
+        <v>157</v>
+      </c>
+      <c r="E99" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101" t="s">
+        <v>157</v>
+      </c>
+      <c r="E101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -859,6 +2381,86 @@
     <hyperlink ref="A20" r:id="rId19"/>
     <hyperlink ref="A21" r:id="rId20"/>
     <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/shows.xlsx
+++ b/Output/shows.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="158">
   <si>
     <t>url</t>
   </si>
@@ -31,81 +31,12 @@
     <t>time</t>
   </si>
   <si>
-    <t>https://comedypass.online/tienda/mauro-palma-20-de-diciembre-2000-hrs-la-bota-cervecera-valdivia/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/pelao-rodrigo-comedy-restobar-20-de-diciembre-2000-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/pollo-castillo-20-de-diciembre-1930-hrs-club-de-san-miguel/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/rodrigo-vasquez-comedy-restobar-20-de-diciembre-2230-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/ivan-arenas-20-de-diciembre-2230-hrs-club-de-san-miguel/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/odioso-que-vuelvan-los-90-mr-feromonas-viernes-20-de-diciembre-2130-hrs-bar-111/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/la-wilo-comedy-restobar-21-de-diciembre-2000-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/roberto-delgado-21-de-diciembre-2000-hrs-begona-bar/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/vale-saini-21-de-diciembre-2000-hrs-la-bota-cervecera-valdivia/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/felipe-izquierdo-21-de-diciembre-1900-hrs-club-de-san-miguel/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/odioso-que-vuelvan-los-90-mr-feromonas-sabado-21-de-diciembre-2130-hrs-bar-111/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/vicho-viciani-comedy-restobar-21-de-diciembre-2230-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/pato-pimienta-21-de-diciembre-2230-hrs-club-de-san-miguel/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-23-de-diciembre-1930-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-23-de-diciembre-2130-hrs-segunda-funcion/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/ignacio-socias-comedy-restobar-26-de-diciembre-2000-hrs-2/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/el-regalo-edo-vallejo-comedy-restobar-26-de-diciembre-2230-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/chiqui-aguayo-comedy-restobar-27-de-diciembre-1930-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/vituperio-no-estoy-creici-comedy-restobar-27-de-diciembre-2230-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/sergio-freire-27-de-diciembre-2100-hrs-club-de-san-miguel/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/sergio-freire-comedy-restobar-28-de-diciembre-2000-hrs/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/chiqui-aguayo-28-de-diciembre-2100-hrs-club-de-san-miguel/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/odioso-que-vuelvan-los-90-mr-feromonas-sabado-28-de-diciembre-2130-hrs-bar-111/</t>
-  </si>
-  <si>
-    <t>https://comedypass.online/tienda/demian-the-rat-comedy-restobar-28-de-diciembre-2230-hrs-2/</t>
-  </si>
-  <si>
     <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-30-de-diciembre-1930-hrs/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-30-de-diciembre-2130-hrs-segunda-funcion/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/ignacio-socias-camino-a-olmue-2-de-enero-2100-hrs-espacio-eskenazo-pirque/</t>
   </si>
   <si>
@@ -115,6 +46,9 @@
     <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-comedy-restobar-3-de-enero-2230-hrs/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/don-carter-4-de-enero-2230-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/juan-pablo-flores-comedy-restobar-4-de-enero-2000-hrs/</t>
   </si>
   <si>
@@ -124,6 +58,9 @@
     <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-6-de-enero-1930-hrs/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-6-de-enero-2130-hrs-segunda-funcion/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/ignacio-socias-camino-a-olmue-comedy-restobar-7-de-enero-2000-hrs/</t>
   </si>
   <si>
@@ -148,9 +85,15 @@
     <t>https://comedypass.online/tienda/pao-molina-comedy-restobar-9-de-enero-2000-hrs/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/3-ramen-de-luca-desicion-dividida-9-de-enero-2100-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/vituperio-no-estoy-creici-9-de-enero-2130-hrs-espacio-bourbon-copiapo/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/pampam-camino-a-vina-9-de-enero-2100-hrs-gamberetto-chillan/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-9-de-enero-2100-hrs-la-casa-del-mojito-artesanal-iquique/</t>
   </si>
   <si>
@@ -160,7 +103,7 @@
     <t>https://comedypass.online/tienda/ignacio-socias-camino-a-olmue-9-de-enero-2100-hrs-patio-bulnes-buin-2/</t>
   </si>
   <si>
-    <t>https://comedypass.online/tienda/ivan-cabello-9-de-enero-2100-hrs-la-bota-cervecera-valdivia/</t>
+    <t>https://comedypass.online/tienda/ivan-cabello-9-de-enero-2000-hrs-la-bota-cervecera-valdivia/</t>
   </si>
   <si>
     <t>https://comedypass.online/tienda/ivan-cabello-10-de-enero-2000-hrs-bar-baradero-puerto-montt/</t>
@@ -169,6 +112,9 @@
     <t>https://comedypass.online/tienda/alison-mandel-comedy-restobar-10-de-enero-2000-hrs/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/darinka-rossy-rossy-y-monse-jerez-10-de-enero-2100-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-10-de-enero-2100-hrs-terraza-bahia-antofagasta-3/</t>
   </si>
   <si>
@@ -184,6 +130,9 @@
     <t>https://comedypass.online/tienda/la-elvira-barriendo-con-todo-11-de-enero-2000-hrs-la-bota-cervecera-valdivia/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/desplumados-11-de-enero-2100-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/rodrigo-gonzalez-11-de-enero-2200-hrs-la-clandestina-linares/</t>
   </si>
   <si>
@@ -199,10 +148,19 @@
     <t>https://comedypass.online/tienda/la-media-girita-altoyoyo-14-de-enero-2130-hrs-coyotes-club-maipu/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/pau-san-martin-tirotallas-y-roberto-delgado-comedy-restobar-14-de-enero-2230-hrs/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/vituperio-no-estoy-creici-15-de-enero-1900-hrs-enkai-bar-antofagasta-nueva-funcion/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/chiqui-aguayo-comedy-restobar-15-de-enero-1930-hrs/</t>
   </si>
   <si>
-    <t>https://comedypass.online/tienda/sin-juzgar-marcelo-valverde-15-de-enero-2100-hrs-trotamundos-quilpue/</t>
+    <t>https://comedypass.online/tienda/pampam-camino-a-vina-15-de-enero-2000-hrs-restobar-taberu-sushi-victoria/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/rodrigo-villegas-15-de-enero-2100-hrs-club-de-san-miguel/</t>
   </si>
   <si>
     <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-15-de-enero-2100-hrs-bar-republicano-rancagua/</t>
@@ -223,6 +181,9 @@
     <t>https://comedypass.online/tienda/gringo-mode-on-16-de-enero-1930-hrs-la-bota-cervecera-valdivia/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/pampam-camino-a-vina-16-de-enero-2100-hrs-campo-viejo-villarrica/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/rodrigo-villegas-16-de-enero-2130-hrs-espacio-eskenazo-pirque/</t>
   </si>
   <si>
@@ -241,6 +202,9 @@
     <t>https://comedypass.online/tienda/sin-juzgar-marcelo-valverde-16-de-enero-1900-bar-baradero-puerto-montt/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/leon-murillo-16-de-enero-2100-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/ivan-cabello-16-de-enero-2000-hrs-locos-x-vina-vina-del-mar/</t>
   </si>
   <si>
@@ -250,12 +214,21 @@
     <t>https://comedypass.online/tienda/sin-juzgar-marcelo-valverde-17-de-enero-1930-hrs-la-bota-cervecera-valdivia/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/pampam-camino-a-vina-17-de-enero-2100-hrs-dsocios-cunco/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/pame-leiva-comedy-restobar-17-de-enero-2230-hrs/</t>
   </si>
   <si>
     <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-17-de-enero-2100-hrs-cacho-de-cabra-santa-cruz/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/chiqui-aguayo-17-de-enero-1900-hrs-palermo-teatro-bar/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/porque-sera-que-las-queremos-tanto-17-de-enero-2100-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/leon-murillo-comedy-restobar-18-de-enero-2000-hrs/</t>
   </si>
   <si>
@@ -268,12 +241,21 @@
     <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-18-de-enero-2100-hrs-bar-plaza-curico/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/pampam-camino-a-vina-18-de-enero-2130-hrs-la-motoneta-loncoche/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/chiqui-aguayo-18-de-enero-2100-hrs-ruta-78-puente-alto/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/ivan-arenas-18-de-enero-2100-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-20-de-enero-1930-hrs/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/chiqui-aguayo-20-de-febrero-2100-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/ignacio-socias-desde-cero-comedy-restobar-21-de-enero-2000-hrs/</t>
   </si>
   <si>
@@ -304,6 +286,12 @@
     <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-23-de-enero-2000-hrs-barbones-vina-del-mar/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/pampam-camino-a-vina-23-de-enero-2130-hrs-araukasa-san-antonio/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/don-carter-23-de-enero-2230-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/erwin-padilla-comedy-restobar-23-de-enero-2230-hrs/</t>
   </si>
   <si>
@@ -313,12 +301,18 @@
     <t>https://comedypass.online/tienda/altoyoyo-rodrigo-vasquez-comedy-restobar-24-de-enero-2000-hrs/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/ivan-cabello-24-de-enero-2030-hrs-oasis-bar-antofagasta/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/vicho-y-alex-gira-de-verano-24-de-enero-2100-hrs-gatoloco-talca/</t>
   </si>
   <si>
     <t>https://comedypass.online/tienda/sin-juzgar-marcelo-valverde-24-de-enero-2100-hrs-bar-plaza-curico/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/el-malon-de-los-80-24-de-enero-2100-hrs-club-de-san-miguel/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/altoyoyo-rodrigo-vasquez-comedy-restobar-24-de-enero-2230-hrs-segunda-funcion/</t>
   </si>
   <si>
@@ -331,99 +325,78 @@
     <t>https://comedypass.online/tienda/vituperio-no-estoy-creici-comedy-restobar-25-de-enero-2000-hrs/</t>
   </si>
   <si>
+    <t>https://comedypass.online/tienda/la-wilo-tour-del-ver-ano-25-de-enero-2030-hrs-bar-dunkel-san-fernando/</t>
+  </si>
+  <si>
+    <t>https://comedypass.online/tienda/la-media-girita-altoyoyo-25-de-enero-2100-hrs-mamas-y-tapas-pucon/</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/</t>
   </si>
   <si>
+    <t>paloma salas</t>
+  </si>
+  <si>
+    <t>ignacio socias</t>
+  </si>
+  <si>
+    <t>claudio michaux</t>
+  </si>
+  <si>
+    <t>don carter</t>
+  </si>
+  <si>
+    <t>juan pablo flores</t>
+  </si>
+  <si>
+    <t>rodrigo gonzalez</t>
+  </si>
+  <si>
+    <t>no estoy creici</t>
+  </si>
+  <si>
+    <t>lucas espinoza</t>
+  </si>
+  <si>
+    <t>pao molina</t>
+  </si>
+  <si>
+    <t>alison mandel</t>
+  </si>
+  <si>
+    <t>palomoza</t>
+  </si>
+  <si>
+    <t>pato pimienta</t>
+  </si>
+  <si>
+    <t>roberto delgado</t>
+  </si>
+  <si>
+    <t>chiqui aguayo</t>
+  </si>
+  <si>
+    <t>la wilo</t>
+  </si>
+  <si>
+    <t>marcelo valverde</t>
+  </si>
+  <si>
+    <t>leon murillo</t>
+  </si>
+  <si>
+    <t>pame leiva</t>
+  </si>
+  <si>
     <t>rodrigo vasquez</t>
   </si>
   <si>
-    <t>mr feromonas</t>
-  </si>
-  <si>
-    <t>la wilo</t>
-  </si>
-  <si>
-    <t>roberto delgado</t>
-  </si>
-  <si>
-    <t>felipe izquierdo</t>
-  </si>
-  <si>
-    <t>vicho viciani</t>
-  </si>
-  <si>
-    <t>pato pimienta</t>
-  </si>
-  <si>
-    <t>paloma salas</t>
-  </si>
-  <si>
-    <t>ignacio socias</t>
-  </si>
-  <si>
-    <t>chiqui aguayo</t>
-  </si>
-  <si>
-    <t>no estoy creici</t>
-  </si>
-  <si>
-    <t>demian the rat</t>
-  </si>
-  <si>
-    <t>claudio michaux</t>
-  </si>
-  <si>
-    <t>juan pablo flores</t>
-  </si>
-  <si>
-    <t>rodrigo gonzalez</t>
-  </si>
-  <si>
-    <t>lucas espinoza</t>
-  </si>
-  <si>
-    <t>pao molina</t>
-  </si>
-  <si>
-    <t>alison mandel</t>
-  </si>
-  <si>
-    <t>palomoza</t>
-  </si>
-  <si>
-    <t>marcelo valverde</t>
-  </si>
-  <si>
-    <t>pame leiva</t>
-  </si>
-  <si>
-    <t>leon murillo</t>
-  </si>
-  <si>
     <t>comedy restobar</t>
   </si>
   <si>
     <t>club de san miguel</t>
   </si>
   <si>
-    <t>20 de diciembre</t>
-  </si>
-  <si>
-    <t>21 de diciembre</t>
-  </si>
-  <si>
-    <t>23 de diciembre</t>
-  </si>
-  <si>
-    <t>26 de diciembre</t>
-  </si>
-  <si>
-    <t>27 de diciembre</t>
-  </si>
-  <si>
-    <t>28 de diciembre</t>
-  </si>
-  <si>
     <t>30 de diciembre</t>
   </si>
   <si>
@@ -475,6 +448,9 @@
     <t>20 de enero</t>
   </si>
   <si>
+    <t>20 de febrero</t>
+  </si>
+  <si>
     <t>21 de enero</t>
   </si>
   <si>
@@ -490,25 +466,25 @@
     <t>25 de enero</t>
   </si>
   <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
     <t>20:00</t>
   </si>
   <si>
-    <t>19:30</t>
-  </si>
-  <si>
     <t>22:30</t>
   </si>
   <si>
-    <t>21:30</t>
+    <t>22:00</t>
   </si>
   <si>
     <t>19:00</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>22:00</t>
   </si>
   <si>
     <t>20:30</t>
@@ -909,39 +885,48 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>129</v>
+      <c r="B4" t="s">
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -949,16 +934,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -966,13 +951,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
         <v>129</v>
       </c>
-      <c r="D6" t="s">
-        <v>130</v>
-      </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -980,13 +965,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
       </c>
       <c r="D7" t="s">
         <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -994,16 +982,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1011,24 +999,33 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="s">
         <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1036,16 +1033,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
         <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1055,11 +1052,14 @@
       <c r="B12" t="s">
         <v>107</v>
       </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1067,33 +1067,27 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>112</v>
-      </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1104,13 +1098,13 @@
         <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1118,47 +1112,38 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
         <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
       <c r="D18" t="s">
         <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1166,92 +1151,80 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>116</v>
-      </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>129</v>
+      <c r="B21" t="s">
+        <v>112</v>
       </c>
       <c r="D21" t="s">
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>129</v>
-      </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
-        <v>107</v>
+      <c r="C24" t="s">
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1259,47 +1232,35 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" t="s">
-        <v>128</v>
-      </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>114</v>
-      </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1307,16 +1268,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1324,30 +1285,24 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>128</v>
-      </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1355,16 +1310,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1372,16 +1324,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1389,30 +1341,27 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1420,13 +1369,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1434,16 +1383,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1451,55 +1397,55 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" t="s">
-        <v>128</v>
-      </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" t="s">
-        <v>128</v>
-      </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1507,63 +1453,72 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s">
-        <v>114</v>
-      </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1571,10 +1526,10 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1582,16 +1537,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1599,10 +1554,10 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1610,13 +1565,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1624,33 +1579,27 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>128</v>
-      </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1658,52 +1607,46 @@
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B53" t="s">
-        <v>120</v>
-      </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" t="s">
-        <v>128</v>
-      </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1711,27 +1654,27 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1739,16 +1682,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1756,13 +1696,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1770,10 +1713,10 @@
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1784,38 +1727,38 @@
         <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E62" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B63" t="s">
-        <v>116</v>
-      </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E63" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1823,16 +1766,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1840,46 +1783,55 @@
         <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E67" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1887,41 +1839,38 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B70" t="s">
-        <v>115</v>
+      <c r="C70" t="s">
+        <v>125</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B71" t="s">
-        <v>125</v>
-      </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E71" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1929,10 +1878,10 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E72" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1940,30 +1889,27 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
-      </c>
-      <c r="C73" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E73" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B74" t="s">
-        <v>125</v>
+      <c r="C74" t="s">
+        <v>126</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1971,27 +1917,33 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" t="s">
         <v>150</v>
-      </c>
-      <c r="E75" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" t="s">
+        <v>126</v>
+      </c>
       <c r="D76" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1999,69 +1951,69 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C77" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>125</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E78" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C79" t="s">
-        <v>128</v>
-      </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" t="s">
+        <v>125</v>
+      </c>
       <c r="D80" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B81" t="s">
-        <v>115</v>
-      </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2069,75 +2021,72 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B83" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" t="s">
-        <v>128</v>
-      </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E83" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
       <c r="C84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E84" t="s">
         <v>153</v>
-      </c>
-      <c r="E84" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="B85" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" t="s">
+        <v>126</v>
+      </c>
       <c r="D85" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B86" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" t="s">
-        <v>128</v>
-      </c>
       <c r="D86" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2145,10 +2094,10 @@
         <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2156,44 +2105,41 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D88" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" t="s">
         <v>154</v>
-      </c>
-      <c r="E88" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="C89" t="s">
+        <v>125</v>
+      </c>
       <c r="D89" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" t="s">
         <v>154</v>
-      </c>
-      <c r="E89" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
-        <v>108</v>
-      </c>
-      <c r="C90" t="s">
-        <v>128</v>
-      </c>
       <c r="D90" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E90" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2201,16 +2147,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E91" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2218,63 +2164,66 @@
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C93" t="s">
-        <v>128</v>
-      </c>
       <c r="D93" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E93" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
       <c r="D94" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B95" t="s">
-        <v>106</v>
-      </c>
       <c r="C95" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E95" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="B96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" t="s">
+        <v>125</v>
+      </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2282,13 +2231,13 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D97" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E97" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2296,16 +2245,13 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D98" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2313,13 +2259,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C99" t="s">
+        <v>125</v>
       </c>
       <c r="D99" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E99" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2327,30 +2276,24 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
+        <v>149</v>
+      </c>
+      <c r="E100" t="s">
         <v>157</v>
-      </c>
-      <c r="E100" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B101" t="s">
-        <v>116</v>
-      </c>
-      <c r="C101" t="s">
-        <v>128</v>
-      </c>
       <c r="D101" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E101" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:5">

--- a/Output/shows.xlsx
+++ b/Output/shows.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="173">
   <si>
     <t>url</t>
   </si>
@@ -34,6 +34,9 @@
     <t>city</t>
   </si>
   <si>
+    <t>date2</t>
+  </si>
+  <si>
     <t>https://comedypass.online/tienda/paloma-salas-comedy-restobar-30-de-diciembre-1930-hrs/</t>
   </si>
   <si>
@@ -214,9 +217,6 @@
     <t>https://comedypass.online/tienda/alison-mandel-comedy-restobar-17-de-enero-2000-hrs-2/</t>
   </si>
   <si>
-    <t>https://comedypass.online/tienda/</t>
-  </si>
-  <si>
     <t>paloma salas</t>
   </si>
   <si>
@@ -488,6 +488,51 @@
   </si>
   <si>
     <t>la ligua</t>
+  </si>
+  <si>
+    <t>30/12/2025</t>
+  </si>
+  <si>
+    <t>02/01/2025</t>
+  </si>
+  <si>
+    <t>03/01/2025</t>
+  </si>
+  <si>
+    <t>04/01/2025</t>
+  </si>
+  <si>
+    <t>06/01/2025</t>
+  </si>
+  <si>
+    <t>07/01/2025</t>
+  </si>
+  <si>
+    <t>08/01/2025</t>
+  </si>
+  <si>
+    <t>09/01/2025</t>
+  </si>
+  <si>
+    <t>10/01/2025</t>
+  </si>
+  <si>
+    <t>11/01/2025</t>
+  </si>
+  <si>
+    <t>13/01/2025</t>
+  </si>
+  <si>
+    <t>14/01/2025</t>
+  </si>
+  <si>
+    <t>15/01/2025</t>
+  </si>
+  <si>
+    <t>16/01/2025</t>
+  </si>
+  <si>
+    <t>17/01/2025</t>
   </si>
 </sst>
 </file>
@@ -858,13 +903,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,10 +928,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -903,10 +951,13 @@
       <c r="F2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -923,10 +974,13 @@
       <c r="F3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -943,10 +997,13 @@
       <c r="F4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -963,10 +1020,13 @@
       <c r="F5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
@@ -980,10 +1040,13 @@
       <c r="F6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -1000,10 +1063,13 @@
       <c r="F7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -1020,10 +1086,13 @@
       <c r="F8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -1040,10 +1109,13 @@
       <c r="F9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -1060,10 +1132,13 @@
       <c r="F10" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -1080,10 +1155,13 @@
       <c r="F11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -1100,10 +1178,13 @@
       <c r="F12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -1120,10 +1201,13 @@
       <c r="F13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -1140,10 +1224,13 @@
       <c r="F14" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
@@ -1160,10 +1247,13 @@
       <c r="F15" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -1180,10 +1270,13 @@
       <c r="F16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>91</v>
@@ -1197,10 +1290,13 @@
       <c r="F17" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>96</v>
@@ -1214,10 +1310,13 @@
       <c r="F18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -1234,10 +1333,13 @@
       <c r="F19" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>93</v>
@@ -1251,10 +1353,13 @@
       <c r="F20" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -1271,10 +1376,13 @@
       <c r="F21" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>98</v>
@@ -1288,10 +1396,13 @@
       <c r="F22" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>99</v>
@@ -1305,10 +1416,13 @@
       <c r="F23" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -1325,10 +1439,13 @@
       <c r="F24" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -1345,10 +1462,13 @@
       <c r="F25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>78</v>
@@ -1365,10 +1485,13 @@
       <c r="F26" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>78</v>
@@ -1385,10 +1508,13 @@
       <c r="F27" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>79</v>
@@ -1405,10 +1531,13 @@
       <c r="F28" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>93</v>
@@ -1422,10 +1551,13 @@
       <c r="F29" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>103</v>
@@ -1439,10 +1571,13 @@
       <c r="F30" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
@@ -1453,10 +1588,13 @@
       <c r="E31" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>80</v>
@@ -1473,10 +1611,13 @@
       <c r="F32" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
@@ -1493,10 +1634,13 @@
       <c r="F33" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>101</v>
@@ -1510,10 +1654,13 @@
       <c r="F34" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>93</v>
@@ -1527,10 +1674,13 @@
       <c r="F35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -1547,10 +1697,13 @@
       <c r="F36" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>69</v>
@@ -1567,10 +1720,13 @@
       <c r="F37" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>105</v>
@@ -1584,10 +1740,13 @@
       <c r="F38" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -1604,10 +1763,13 @@
       <c r="F39" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>82</v>
@@ -1624,10 +1786,13 @@
       <c r="F40" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>83</v>
@@ -1644,10 +1809,13 @@
       <c r="F41" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
@@ -1664,10 +1832,13 @@
       <c r="F42" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
@@ -1684,10 +1855,13 @@
       <c r="F43" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>108</v>
@@ -1701,10 +1875,13 @@
       <c r="F44" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
         <v>85</v>
@@ -1721,10 +1898,13 @@
       <c r="F45" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
         <v>109</v>
@@ -1738,10 +1918,13 @@
       <c r="F46" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
         <v>84</v>
@@ -1758,10 +1941,13 @@
       <c r="F47" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
         <v>82</v>
@@ -1778,10 +1964,13 @@
       <c r="F48" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>73</v>
@@ -1798,10 +1987,13 @@
       <c r="F49" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
         <v>86</v>
@@ -1818,10 +2010,13 @@
       <c r="F50" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>87</v>
@@ -1838,10 +2033,13 @@
       <c r="F51" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
         <v>111</v>
@@ -1855,10 +2053,13 @@
       <c r="F52" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>85</v>
@@ -1875,10 +2076,13 @@
       <c r="F53" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
         <v>112</v>
@@ -1892,10 +2096,13 @@
       <c r="F54" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>88</v>
@@ -1912,10 +2119,13 @@
       <c r="F55" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
         <v>73</v>
@@ -1932,10 +2142,13 @@
       <c r="F56" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
         <v>84</v>
@@ -1952,10 +2165,13 @@
       <c r="F57" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
         <v>89</v>
@@ -1972,10 +2188,13 @@
       <c r="F58" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
         <v>90</v>
@@ -1992,10 +2211,13 @@
       <c r="F59" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>78</v>
@@ -2006,10 +2228,13 @@
       <c r="E60" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
         <v>79</v>
@@ -2026,10 +2251,8 @@
       <c r="F61" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2" t="s">
-        <v>66</v>
+      <c r="G61" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2317,6 @@
     <hyperlink ref="A59" r:id="rId58"/>
     <hyperlink ref="A60" r:id="rId59"/>
     <hyperlink ref="A61" r:id="rId60"/>
-    <hyperlink ref="A62" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
